--- a/artfynd/A 24768-2023.xlsx
+++ b/artfynd/A 24768-2023.xlsx
@@ -1711,10 +1711,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111382287</v>
+        <v>111381732</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1727,35 +1727,48 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Persholmen, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>520602.9850359389</v>
+        <v>520706.5912170482</v>
       </c>
       <c r="R10" t="n">
-        <v>6363089.995748077</v>
+        <v>6363093.212786997</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1824,10 +1837,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111381732</v>
+        <v>111382287</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1840,48 +1853,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Persholmen, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>520706.5912170482</v>
+        <v>520602.9850359389</v>
       </c>
       <c r="R11" t="n">
-        <v>6363093.212786997</v>
+        <v>6363089.995748077</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
